--- a/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
+++ b/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.mena\Graduacion\Solución\Entregable Tesis\Planos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.mena\Documents\Graduacion\Graduacion\Solución\Entregable Tesis\Planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Lista de piezas</t>
   </si>
@@ -41,7 +41,247 @@
     <t>Motor Concentrado</t>
   </si>
   <si>
-    <t>Bota Concentrado</t>
+    <t>Tolva</t>
+  </si>
+  <si>
+    <t>Marco Superior</t>
+  </si>
+  <si>
+    <t>Tapa inferior</t>
+  </si>
+  <si>
+    <t>Passdor Cilindro</t>
+  </si>
+  <si>
+    <t>Bisagra</t>
+  </si>
+  <si>
+    <t>Bastidor tolva Romana</t>
+  </si>
+  <si>
+    <t>Tolva Contenedor</t>
+  </si>
+  <si>
+    <t>Acople Tuvo PVC</t>
+  </si>
+  <si>
+    <t>Bota Inferior</t>
+  </si>
+  <si>
+    <t>Bota Superior</t>
+  </si>
+  <si>
+    <t>Compuerta</t>
+  </si>
+  <si>
+    <t>Tapa lateral</t>
+  </si>
+  <si>
+    <t>Tapa lateral aluminio</t>
+  </si>
+  <si>
+    <t>Polea 2 in</t>
+  </si>
+  <si>
+    <t>Polea 4 in</t>
+  </si>
+  <si>
+    <t>Soporte Motor 1</t>
+  </si>
+  <si>
+    <t>Soporte Motor 2</t>
+  </si>
+  <si>
+    <t>Soporte Motor 3</t>
+  </si>
+  <si>
+    <t>Tubo PVC</t>
+  </si>
+  <si>
+    <t>Tornillo sin fin Concentrado</t>
+  </si>
+  <si>
+    <t>Bastidor Concentrado</t>
+  </si>
+  <si>
+    <t>Transportador Mineral</t>
+  </si>
+  <si>
+    <t>Tolva Contenedora</t>
+  </si>
+  <si>
+    <t>Acople Stepper Motor</t>
+  </si>
+  <si>
+    <t>Sujetador Transportador</t>
+  </si>
+  <si>
+    <t>Brida Mineral</t>
+  </si>
+  <si>
+    <t>Torillo sin fin Mineral</t>
+  </si>
+  <si>
+    <t>Tuvo PVC Mineral</t>
+  </si>
+  <si>
+    <t>Tolva Contenedora Levadura</t>
+  </si>
+  <si>
+    <t>Brida Levadura</t>
+  </si>
+  <si>
+    <t>Tornillo sin fin Levadura</t>
+  </si>
+  <si>
+    <t>Compeurta aditivos</t>
+  </si>
+  <si>
+    <t>Marco Mineral</t>
+  </si>
+  <si>
+    <t>Marco Levadura</t>
+  </si>
+  <si>
+    <t>Cuerpo Mineral</t>
+  </si>
+  <si>
+    <t>Cuerpo Levadura</t>
+  </si>
+  <si>
+    <t>Tapa mineral</t>
+  </si>
+  <si>
+    <t>Tapa levadura</t>
+  </si>
+  <si>
+    <t>Elementos estandarizados</t>
+  </si>
+  <si>
+    <t>CILINDROS NEUMATICOS</t>
+  </si>
+  <si>
+    <t>CC TAL 220</t>
+  </si>
+  <si>
+    <t>CC UXCELL 1 KG</t>
+  </si>
+  <si>
+    <t>CC UXCELL 500 G</t>
+  </si>
+  <si>
+    <t>RETENEDORES</t>
+  </si>
+  <si>
+    <t>ARANDELA DE PRESION</t>
+  </si>
+  <si>
+    <t>TORNILLOS HEXAGONALES M12</t>
+  </si>
+  <si>
+    <t>TORNILLOS HEXAGONALES M6</t>
+  </si>
+  <si>
+    <t>TUERCAS M6</t>
+  </si>
+  <si>
+    <t>TORNILLOS ALEN M3</t>
+  </si>
+  <si>
+    <t>TUERCAS M3</t>
+  </si>
+  <si>
+    <t>ALLEN M4</t>
+  </si>
+  <si>
+    <t>TUERCA M4</t>
+  </si>
+  <si>
+    <t>ARANDELA PRESION M4</t>
+  </si>
+  <si>
+    <t>TOTAL DE ELEMENTOS ESTANDARIZADOS</t>
+  </si>
+  <si>
+    <t>HEX M4</t>
+  </si>
+  <si>
+    <t>HEX M6</t>
+  </si>
+  <si>
+    <t>HEX M8</t>
+  </si>
+  <si>
+    <t>HEX M12</t>
+  </si>
+  <si>
+    <t>TUERCA M3</t>
+  </si>
+  <si>
+    <t>TUERCA M6</t>
+  </si>
+  <si>
+    <t>TUERCA M8</t>
+  </si>
+  <si>
+    <t>TUERCA M12</t>
+  </si>
+  <si>
+    <t>ARANDELA PRESION</t>
+  </si>
+  <si>
+    <t>TOLVA ROMANA</t>
+  </si>
+  <si>
+    <t>TOLVA CONCENTRADO</t>
+  </si>
+  <si>
+    <t>MOTOR CONCENTRADO</t>
+  </si>
+  <si>
+    <t>PRISIONERO M4</t>
+  </si>
+  <si>
+    <t>PRIOSIONERO M5</t>
+  </si>
+  <si>
+    <t>TORNILLO M5</t>
+  </si>
+  <si>
+    <t>TUERCA M5</t>
+  </si>
+  <si>
+    <t>BOTA CONCENTRADO</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORES FINOS</t>
+  </si>
+  <si>
+    <t>COMPUERTAS FINOS</t>
+  </si>
+  <si>
+    <t>ALLEN M3</t>
+  </si>
+  <si>
+    <t>ALLEN M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
+  </si>
+  <si>
+    <t>0.8X10</t>
+  </si>
+  <si>
+    <t>0.8 x 4</t>
+  </si>
+  <si>
+    <t>0,8 x 12</t>
+  </si>
+  <si>
+    <t>M4x0.5x30</t>
+  </si>
+  <si>
+    <t>TORNILLO CRUZ M4</t>
   </si>
 </sst>
 </file>
@@ -359,25 +599,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="XET22" workbookViewId="0">
+      <selection activeCell="XFD33" sqref="XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -388,192 +631,607 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <f>SUM(H24:O24)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25">
+        <v>35</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P40" si="0">SUM(H25:O25)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>82</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="N31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33">
+        <v>35</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
+++ b/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.mena\Documents\Graduacion\Graduacion\Solución\Entregable Tesis\Planos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.mena\Documents\Graduacion\Solución\Entregable Tesis\Planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Lista de piezas</t>
   </si>
   <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>Tolva Romana</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Tapa inferior</t>
   </si>
   <si>
-    <t>Passdor Cilindro</t>
-  </si>
-  <si>
     <t>Bisagra</t>
   </si>
   <si>
@@ -282,6 +276,9 @@
   </si>
   <si>
     <t>TORNILLO CRUZ M4</t>
+  </si>
+  <si>
+    <t>Pasador Cilindro</t>
   </si>
 </sst>
 </file>
@@ -601,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XET22" workbookViewId="0">
-      <selection activeCell="XFD33" sqref="XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,26 +612,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -642,25 +634,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -668,25 +660,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -694,25 +686,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -720,25 +712,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -746,48 +738,48 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -795,16 +787,16 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -812,32 +804,32 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -845,28 +837,28 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
         <v>68</v>
       </c>
-      <c r="H22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" t="s">
-        <v>70</v>
-      </c>
       <c r="J22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" t="s">
         <v>75</v>
-      </c>
-      <c r="K22" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -874,10 +866,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -888,10 +880,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -912,10 +904,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H25">
         <v>35</v>
@@ -930,10 +922,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H26">
         <v>6</v>
@@ -948,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -960,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="M27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
@@ -972,10 +964,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -984,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
@@ -996,16 +988,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O29">
         <v>4</v>
@@ -1020,10 +1012,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1032,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O30">
         <v>4</v>
@@ -1047,10 +1039,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1059,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="N31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -1074,10 +1066,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1098,10 +1090,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H33">
         <v>35</v>
@@ -1116,10 +1108,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H34">
         <v>6</v>
@@ -1134,10 +1126,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1158,10 +1150,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -1176,7 +1168,7 @@
         <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -1191,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -1206,7 +1198,7 @@
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I39">
         <v>5</v>
@@ -1224,7 +1216,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L40">
         <v>8</v>

--- a/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
+++ b/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>Lista de piezas</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Tornillo sin fin Levadura</t>
   </si>
   <si>
-    <t>Compeurta aditivos</t>
-  </si>
-  <si>
     <t>Marco Mineral</t>
   </si>
   <si>
@@ -279,14 +276,52 @@
   </si>
   <si>
     <t>Pasador Cilindro</t>
+  </si>
+  <si>
+    <t>Compuerta finos</t>
+  </si>
+  <si>
+    <t>Bastidor Esclusas</t>
+  </si>
+  <si>
+    <t>TEE 1 IN</t>
+  </si>
+  <si>
+    <t>TEE 1/2 IN</t>
+  </si>
+  <si>
+    <t>STEPPER</t>
+  </si>
+  <si>
+    <t>FAJA</t>
+  </si>
+  <si>
+    <t>RODAMIENTO 5/8</t>
+  </si>
+  <si>
+    <t>RODAMIENTO 1/2</t>
+  </si>
+  <si>
+    <t>CHUMACERA</t>
+  </si>
+  <si>
+    <t>PRISIONERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -314,8 +349,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,72 +633,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>2</v>
       </c>
@@ -669,25 +715,31 @@
         <v>10</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6">
         <v>3</v>
       </c>
@@ -695,24 +747,30 @@
         <v>11</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -721,25 +779,31 @@
         <v>12</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
         <v>5</v>
       </c>
@@ -747,22 +811,31 @@
         <v>13</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>6</v>
       </c>
@@ -770,19 +843,31 @@
         <v>14</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
         <v>7</v>
       </c>
@@ -790,443 +875,666 @@
         <v>15</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>56</v>
       </c>
-      <c r="G22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="F23" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>57</v>
       </c>
-      <c r="H23">
+      <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="M26">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <f>SUM(K26:R26)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>58</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>16</v>
-      </c>
-      <c r="K24">
+      <c r="K27">
+        <v>35</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27:S42" si="0">SUM(K27:R27)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
         <v>6</v>
       </c>
-      <c r="P24">
-        <f>SUM(H24:O24)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25">
-        <v>35</v>
-      </c>
-      <c r="P25">
-        <f t="shared" ref="P25:P40" si="0">SUM(H25:O25)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="P26">
+      <c r="S28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29">
         <v>0</v>
       </c>
-      <c r="L27">
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="M27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P27">
+      <c r="P29" t="s">
+        <v>81</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="s">
         <v>77</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>10</v>
-      </c>
-      <c r="N28" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28">
+      <c r="S30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
         <v>0</v>
       </c>
-      <c r="N29" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29">
+      <c r="Q31" t="s">
+        <v>78</v>
+      </c>
+      <c r="R31">
         <v>4</v>
       </c>
-      <c r="P29">
+      <c r="S31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32">
         <v>0</v>
       </c>
-      <c r="L30">
+      <c r="O32">
         <v>4</v>
       </c>
-      <c r="N30" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30">
+      <c r="Q32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R32">
         <v>4</v>
       </c>
-      <c r="P30">
+      <c r="S32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33">
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="O33">
         <v>8</v>
       </c>
-      <c r="N31" t="s">
-        <v>81</v>
-      </c>
-      <c r="O31">
+      <c r="Q33" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33">
         <v>2</v>
       </c>
-      <c r="P31">
+      <c r="S33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34">
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="M34">
         <v>16</v>
       </c>
-      <c r="K32">
+      <c r="N34">
         <v>6</v>
       </c>
-      <c r="P32">
+      <c r="S34">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35">
         <v>35</v>
       </c>
-      <c r="P33">
+      <c r="S35">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36">
         <v>6</v>
       </c>
-      <c r="P34">
+      <c r="S36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37">
         <v>0</v>
       </c>
-      <c r="K35">
+      <c r="N37">
         <v>6</v>
       </c>
-      <c r="L35">
+      <c r="O37">
         <v>4</v>
       </c>
-      <c r="P35">
+      <c r="S37">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38">
         <v>2</v>
       </c>
-      <c r="P36">
+      <c r="S38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39">
         <v>2</v>
       </c>
-      <c r="P37">
+      <c r="S39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="F38" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L40">
         <v>5</v>
       </c>
-      <c r="P38">
+      <c r="S40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="K39">
+      <c r="N41">
         <v>10</v>
       </c>
-      <c r="P39">
+      <c r="S41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="F40" t="s">
-        <v>83</v>
-      </c>
-      <c r="L40">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+      <c r="O42">
         <v>8</v>
       </c>
-      <c r="P40">
+      <c r="S42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
+++ b/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.mena\Documents\Graduacion\Solución\Entregable Tesis\Planos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steve\Universidad\TEC\II Semestre 2018\Proyecto de graduación\Graduacion\Solución\Entregable Tesis\Planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ESPECIFICACIÓN TÉCNICA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="233">
   <si>
     <t>Lista de piezas</t>
   </si>
@@ -306,13 +307,430 @@
   </si>
   <si>
     <t>PRISIONERO</t>
+  </si>
+  <si>
+    <t>Form.</t>
+  </si>
+  <si>
+    <t>Pos.</t>
+  </si>
+  <si>
+    <t>Designación</t>
+  </si>
+  <si>
+    <t>Denominación</t>
+  </si>
+  <si>
+    <t>Cant.</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t>Inventario de formatos</t>
+  </si>
+  <si>
+    <t>CA.01.00 MONT</t>
+  </si>
+  <si>
+    <t>DOCUMENTACIÓN</t>
+  </si>
+  <si>
+    <t>CA.01.01. EXP</t>
+  </si>
+  <si>
+    <t>CA.02.00 MONT</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.00.00 ET</t>
+  </si>
+  <si>
+    <t>Especificación Técnica.</t>
+  </si>
+  <si>
+    <t>CA.02.01 EXP</t>
+  </si>
+  <si>
+    <t>EXPLOSIONADO CONCENTRADO</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.00.01 MONT</t>
+  </si>
+  <si>
+    <t>Dibujo de montaje.</t>
+  </si>
+  <si>
+    <t>CA.03.00 MONT</t>
+  </si>
+  <si>
+    <t>MOTOR MONTAJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.00.01 EXP</t>
+  </si>
+  <si>
+    <t>Dibujo explosionado</t>
+  </si>
+  <si>
+    <t>CA.03.01 EXP</t>
+  </si>
+  <si>
+    <t>MOTOR EXPLOSIONADO</t>
+  </si>
+  <si>
+    <t>CA.04.00 MONT</t>
+  </si>
+  <si>
+    <t>UNIDADES DE MONTAJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.01.00 MONT</t>
+  </si>
+  <si>
+    <t>Tolva Romana Montaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.01.00 EXP</t>
+  </si>
+  <si>
+    <t>Tola Romana Explosionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.02.00 MONT</t>
+  </si>
+  <si>
+    <t>Concentrado Montaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.02.00 EXP</t>
+  </si>
+  <si>
+    <t>Concentrado Explosionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.03.00 MONT</t>
+  </si>
+  <si>
+    <t>Motor Concentrado Montaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.03.00 EXP</t>
+  </si>
+  <si>
+    <t>Motor Concentrado Explosionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.04.00 MONT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.04.00 EXP</t>
+  </si>
+  <si>
+    <t>PIEZAS</t>
+  </si>
+  <si>
+    <t>TOLVA</t>
+  </si>
+  <si>
+    <t>AISI304</t>
+  </si>
+  <si>
+    <t>LAMINA 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.01.02</t>
+  </si>
+  <si>
+    <t>MARCO SUPERIOR</t>
+  </si>
+  <si>
+    <t>GALVANIZADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.01.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAPA INFERIOR </t>
+  </si>
+  <si>
+    <t>PASADOR CILINDRO</t>
+  </si>
+  <si>
+    <t>AISI1020</t>
+  </si>
+  <si>
+    <t>BISAGRA</t>
+  </si>
+  <si>
+    <t>LATÓN</t>
+  </si>
+  <si>
+    <t>BASTIDOR TOLVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.06.17</t>
+  </si>
+  <si>
+    <t>MARCO MINERAL</t>
+  </si>
+  <si>
+    <t>MDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.06.18</t>
+  </si>
+  <si>
+    <t>MARCO LEVADURA</t>
+  </si>
+  <si>
+    <t>CUERPO MINERAL</t>
+  </si>
+  <si>
+    <t>AISI 304</t>
+  </si>
+  <si>
+    <t>LAMINA 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.07.02</t>
+  </si>
+  <si>
+    <t>CUERPO LEVADURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.07.03</t>
+  </si>
+  <si>
+    <t>TAPA MINERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.07.04</t>
+  </si>
+  <si>
+    <t>TAPA LEVADURA</t>
+  </si>
+  <si>
+    <t>CA.07.03</t>
+  </si>
+  <si>
+    <t>BASTIDOR ESCLUSAS</t>
+  </si>
+  <si>
+    <t>TOLVA CONTENEDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.02.02</t>
+  </si>
+  <si>
+    <t>ACOPLE TUBO PVC</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.02.03</t>
+  </si>
+  <si>
+    <t>BOTA INFERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.02.04</t>
+  </si>
+  <si>
+    <t>BOTA SUPERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPUERTA </t>
+  </si>
+  <si>
+    <t>TAPA LATERAL</t>
+  </si>
+  <si>
+    <t>TAPA ALUMINIO</t>
+  </si>
+  <si>
+    <t>ALUMINIO</t>
+  </si>
+  <si>
+    <t>BASTIDOR CONCENTRADO</t>
+  </si>
+  <si>
+    <t>POLEA 2 IN</t>
+  </si>
+  <si>
+    <t>POLEA 4 IN</t>
+  </si>
+  <si>
+    <t>SOPORTE MOTOR 1</t>
+  </si>
+  <si>
+    <t>SOPORTE MOTOR 2</t>
+  </si>
+  <si>
+    <t>SOPORTE MOTOR 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBO PVC </t>
+  </si>
+  <si>
+    <t>TORNILLO SIN FIN CON</t>
+  </si>
+  <si>
+    <t>TOLVA CONTENEDORA MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.04.02</t>
+  </si>
+  <si>
+    <t>ACOPLE MOTOR A PASOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA.04.03</t>
+  </si>
+  <si>
+    <t>SUJETADOR TSF</t>
+  </si>
+  <si>
+    <t>BRIDA MINERAL</t>
+  </si>
+  <si>
+    <t>Hoja 2</t>
+  </si>
+  <si>
+    <t>Piezas</t>
+  </si>
+  <si>
+    <t>TORNILLO SIN FIN MIN</t>
+  </si>
+  <si>
+    <t>TUBO PVC MINERAL</t>
+  </si>
+  <si>
+    <t>TOLVA CONTENEDOR LEV</t>
+  </si>
+  <si>
+    <t>BRIDA LEVADURA</t>
+  </si>
+  <si>
+    <t>TORNILLO SIN FIN LEV</t>
+  </si>
+  <si>
+    <t>CILINDROS NEUMÁTICOS</t>
+  </si>
+  <si>
+    <t>16N2A10A50</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>B27.7-3AM1-4</t>
+  </si>
+  <si>
+    <t>TORNILLO HEXAGONAL M4</t>
+  </si>
+  <si>
+    <t>M4 x 0,7 X 70</t>
+  </si>
+  <si>
+    <t>TORNILLO HEXAGONAL M5</t>
+  </si>
+  <si>
+    <t>M5 x 0,8 x 40</t>
+  </si>
+  <si>
+    <t>TORNILLO HEXAGONAL M6</t>
+  </si>
+  <si>
+    <t>M6 x 1,0 x 40</t>
+  </si>
+  <si>
+    <t>TORNILLO HEXAGONAL M8</t>
+  </si>
+  <si>
+    <t>M8 x 1.25 x 60</t>
+  </si>
+  <si>
+    <t>TORNILLO HEXAGONAL M12</t>
+  </si>
+  <si>
+    <t>TORNILLO ALLEN M3</t>
+  </si>
+  <si>
+    <t>M3 x 0,5 x 4</t>
+  </si>
+  <si>
+    <t>TORNILLO ALLEN M4</t>
+  </si>
+  <si>
+    <t>m4 x 0,7 x 30</t>
+  </si>
+  <si>
+    <t>TORNILLO ALLEN M5</t>
+  </si>
+  <si>
+    <t>M5 x 0.8 x 12</t>
+  </si>
+  <si>
+    <t>HEX NUT STYLE 1 M3 x 0,5</t>
+  </si>
+  <si>
+    <t>HEX NUT STYLE 1 M4 X 0,7</t>
+  </si>
+  <si>
+    <t>HEX NUT STYLE 1 M4 X 0,8</t>
+  </si>
+  <si>
+    <t>HEX NUT STYLE 1 M4 X 1,0</t>
+  </si>
+  <si>
+    <t>HEX NUT STYLE 1 M4 X 1,25</t>
+  </si>
+  <si>
+    <t>ARANDELAS DE PRESIÓN</t>
+  </si>
+  <si>
+    <t>DIN 6905-3,2</t>
+  </si>
+  <si>
+    <t>PRISIONERO M5</t>
+  </si>
+  <si>
+    <t>MONTAJE TOLVA ROMANA</t>
+  </si>
+  <si>
+    <t>EXPLOSIONADO TOLVA ROMANA</t>
+  </si>
+  <si>
+    <t>MONTAJE CONCENTRADO</t>
+  </si>
+  <si>
+    <t>Transportadores finos Montaje</t>
+  </si>
+  <si>
+    <t>Transportadores finos Explosionado</t>
+  </si>
+  <si>
+    <t>TUBO CUADRADO 1 x 1</t>
+  </si>
+  <si>
+    <t>TUBO CUADRADO 2 x 2 Y 1 x 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +745,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,10 +792,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -1537,4 +1998,1727 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="4"/>
+    <col min="11" max="11" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="5">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="5">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="5">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="5">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="5">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="5">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="5">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="5">
+        <v>13</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="5">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="5">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="5">
+        <v>10</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="5">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="5">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="5">
+        <v>13</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="5">
+        <v>15</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="5">
+        <v>16</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="5">
+        <v>7</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="5">
+        <v>17</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="5">
+        <v>4</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="5">
+        <v>18</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="5">
+        <v>19</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="5">
+        <v>20</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="5">
+        <v>21</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="5">
+        <v>14</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="5">
+        <v>22</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="5">
+        <v>23</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="5">
+        <v>24</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="5">
+        <v>25</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="5">
+        <v>26</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="5">
+        <v>8</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="5">
+        <v>27</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" s="5">
+        <v>6</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="5">
+        <v>28</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="5">
+        <v>29</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="5">
+        <v>30</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="5">
+        <v>4</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="5">
+        <v>37</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="5">
+        <v>3</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="5">
+        <v>38</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="5">
+        <v>4</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="5">
+        <v>39</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="5">
+        <v>2</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="5">
+        <v>40</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="5">
+        <v>2</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="5">
+        <v>41</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="5">
+        <v>4</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="5">
+        <v>42</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="5">
+        <v>8</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="5">
+        <v>43</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="5">
+        <v>15</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="5">
+        <v>44</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E89" s="5">
+        <v>22</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="5">
+        <v>45</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="5">
+        <v>35</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="5">
+        <v>46</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="5">
+        <v>12</v>
+      </c>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="5">
+        <v>47</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E92" s="5">
+        <v>8</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5">
+        <v>48</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="5">
+        <v>8</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="5">
+        <v>49</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="5">
+        <v>10</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="5">
+        <v>50</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="5">
+        <v>8</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="5">
+        <v>51</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" s="5">
+        <v>16</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="5">
+        <v>52</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="5">
+        <v>25</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="5">
+        <v>53</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E98" s="5">
+        <v>22</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="5">
+        <v>54</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="5">
+        <v>35</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="5">
+        <v>55</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="5">
+        <v>12</v>
+      </c>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="5">
+        <v>56</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101" s="5">
+        <v>20</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="5">
+        <v>57</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="5">
+        <v>8</v>
+      </c>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="5">
+        <v>58</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="5">
+        <v>16</v>
+      </c>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5">
+        <v>59</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
+++ b/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steve\Universidad\TEC\II Semestre 2018\Proyecto de graduación\Graduacion\Solución\Entregable Tesis\Planos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.mena\Documents\Graduacion\Solución\Entregable Tesis\Planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="234">
   <si>
     <t>Lista de piezas</t>
   </si>
@@ -351,9 +351,6 @@
     <t xml:space="preserve"> CA.00.00 ET</t>
   </si>
   <si>
-    <t>Especificación Técnica.</t>
-  </si>
-  <si>
     <t>CA.02.01 EXP</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t xml:space="preserve"> CA.00.01 MONT</t>
   </si>
   <si>
-    <t>Dibujo de montaje.</t>
-  </si>
-  <si>
     <t>CA.03.00 MONT</t>
   </si>
   <si>
@@ -378,9 +372,6 @@
     <t xml:space="preserve"> CA.00.01 EXP</t>
   </si>
   <si>
-    <t>Dibujo explosionado</t>
-  </si>
-  <si>
     <t>CA.03.01 EXP</t>
   </si>
   <si>
@@ -396,39 +387,21 @@
     <t xml:space="preserve"> CA.01.00 MONT</t>
   </si>
   <si>
-    <t>Tolva Romana Montaje</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CA.01.00 EXP</t>
   </si>
   <si>
-    <t>Tola Romana Explosionado</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CA.02.00 MONT</t>
   </si>
   <si>
-    <t>Concentrado Montaje</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CA.02.00 EXP</t>
   </si>
   <si>
-    <t>Concentrado Explosionado</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CA.03.00 MONT</t>
   </si>
   <si>
-    <t>Motor Concentrado Montaje</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CA.03.00 EXP</t>
   </si>
   <si>
-    <t>Motor Concentrado Explosionado</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CA.04.00 MONT</t>
   </si>
   <si>
@@ -543,9 +516,6 @@
     <t>BOTA INFERIOR</t>
   </si>
   <si>
-    <t xml:space="preserve"> CA.02.04</t>
-  </si>
-  <si>
     <t>BOTA SUPERIOR</t>
   </si>
   <si>
@@ -603,9 +573,6 @@
     <t>BRIDA MINERAL</t>
   </si>
   <si>
-    <t>Hoja 2</t>
-  </si>
-  <si>
     <t>Piezas</t>
   </si>
   <si>
@@ -630,9 +597,6 @@
     <t>16N2A10A50</t>
   </si>
   <si>
-    <t>DIN</t>
-  </si>
-  <si>
     <t>B27.7-3AM1-4</t>
   </si>
   <si>
@@ -714,23 +678,62 @@
     <t>MONTAJE CONCENTRADO</t>
   </si>
   <si>
-    <t>Transportadores finos Montaje</t>
-  </si>
-  <si>
-    <t>Transportadores finos Explosionado</t>
-  </si>
-  <si>
     <t>TUBO CUADRADO 1 x 1</t>
   </si>
   <si>
     <t>TUBO CUADRADO 2 x 2 Y 1 x 2</t>
+  </si>
+  <si>
+    <t>CA.04.03</t>
+  </si>
+  <si>
+    <t>TUBO PVC LEVADURA</t>
+  </si>
+  <si>
+    <t>STEPPERS</t>
+  </si>
+  <si>
+    <t>NEMA23</t>
+  </si>
+  <si>
+    <t>ESPECIFICACIÓN TÉCNICA.</t>
+  </si>
+  <si>
+    <t>DIBUJO DE MONTAJE.</t>
+  </si>
+  <si>
+    <t>DIBUJO EXPLOSIONADO</t>
+  </si>
+  <si>
+    <t>TOLVA ROMANA MONTAJE</t>
+  </si>
+  <si>
+    <t>TOLA ROMANA EXPLOSIONADO</t>
+  </si>
+  <si>
+    <t>CONCENTRADO MONTAJE</t>
+  </si>
+  <si>
+    <t>CONCENTRADO EXPLOSIONADO</t>
+  </si>
+  <si>
+    <t>MOTOR CONCENTRADO MONTAJE</t>
+  </si>
+  <si>
+    <t>MOTOR CONCENTRADO EXPLOSIONADO</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORES FINOS MONTAJE</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORES FINOS EXPLOSIONADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,16 +774,29 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -788,11 +804,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -814,8 +846,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2002,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,7 +2051,7 @@
     <col min="3" max="3" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="11.42578125" style="4"/>
     <col min="11" max="11" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -2069,7 +2105,7 @@
         <v>102</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -2086,7 +2122,7 @@
         <v>104</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -2101,7 +2137,7 @@
         <v>105</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -2113,58 +2149,58 @@
         <v>107</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="K5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
@@ -2176,7 +2212,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>73</v>
@@ -2187,11 +2223,11 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -2204,14 +2240,14 @@
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2219,14 +2255,14 @@
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2234,14 +2270,14 @@
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2249,14 +2285,14 @@
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2264,14 +2300,14 @@
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2279,14 +2315,14 @@
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2294,14 +2330,14 @@
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2309,14 +2345,14 @@
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2336,7 +2372,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2353,25 +2389,25 @@
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -2382,83 +2418,83 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5">
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E25" s="5">
         <v>2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="5">
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -2470,792 +2506,800 @@
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="5">
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="5">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="5">
         <v>9</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="5">
         <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="5">
         <v>11</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E32" s="5">
         <v>2</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="5">
         <v>12</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="5">
         <v>13</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="5">
-        <v>7</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E36" s="5">
         <v>1</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E37" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E40" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E41" s="5">
         <v>2</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="5">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B43" s="5">
-        <v>15</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="5">
-        <v>2</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E44" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E45" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E46" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E47" s="5">
         <v>3</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="5">
-        <v>20</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="5">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="5">
+        <v>13</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="5">
+        <v>14</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="5">
         <v>2</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="5">
-        <v>21</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="5">
-        <v>3</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="5">
-        <v>14</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="5">
-        <v>2</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E52" s="5">
         <v>3</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E53" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" s="5">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E54" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="5">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="5">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="A57" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="5">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="5">
+        <v>6</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="B58" s="5">
+        <v>6</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="5">
+        <v>8</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>100</v>
+    <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="5">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="5">
+        <v>8</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="5">
+        <v>9</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="5">
+        <v>4</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" s="5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E62" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="5">
-        <v>27</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E63" s="5">
-        <v>6</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="5">
-        <v>28</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="5">
-        <v>29</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="5">
-        <v>2</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="5">
-        <v>30</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="5">
-        <v>4</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
@@ -3270,7 +3314,9 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -3279,147 +3325,190 @@
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="5">
+        <v>36</v>
+      </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="5">
+        <v>37</v>
+      </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="5">
+        <v>38</v>
+      </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="5">
+        <v>4</v>
+      </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="5">
+        <v>39</v>
+      </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="5">
+        <v>2</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="5">
         <v>40</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="5">
+        <v>2</v>
+      </c>
       <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B82" s="5">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="E82" s="5">
-        <v>3</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G82" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B83" s="5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="E83" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="G83" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B84" s="5">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="E84" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F84" s="5"/>
-      <c r="G84" s="8"/>
+      <c r="G84" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="85" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B85" s="5">
-        <v>40</v>
-      </c>
-      <c r="C85" s="5"/>
+        <v>44</v>
+      </c>
       <c r="D85" s="5" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="E85" s="5">
-        <v>2</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B86" s="5">
-        <v>41</v>
-      </c>
-      <c r="C86" s="5"/>
+        <v>45</v>
+      </c>
       <c r="D86" s="5" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="E86" s="5">
-        <v>4</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>201</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F86" s="5"/>
       <c r="G86" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3427,54 +3516,46 @@
         <v>106</v>
       </c>
       <c r="B87" s="5">
-        <v>42</v>
-      </c>
-      <c r="C87" s="5"/>
+        <v>46</v>
+      </c>
       <c r="D87" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E87" s="5">
-        <v>8</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="7" t="s">
-        <v>204</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B88" s="5">
-        <v>43</v>
-      </c>
-      <c r="C88" s="5"/>
+        <v>47</v>
+      </c>
       <c r="D88" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E88" s="5">
-        <v>15</v>
-      </c>
-      <c r="F88" s="5"/>
+        <v>8</v>
+      </c>
       <c r="G88" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A89" s="5"/>
       <c r="B89" s="5">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E89" s="5">
-        <v>22</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>208</v>
+        <v>8</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3482,17 +3563,16 @@
         <v>106</v>
       </c>
       <c r="B90" s="5">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E90" s="5">
-        <v>35</v>
-      </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="7" t="s">
-        <v>210</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3500,46 +3580,50 @@
         <v>106</v>
       </c>
       <c r="B91" s="5">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="E91" s="5">
-        <v>12</v>
-      </c>
-      <c r="G91" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="92" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B92" s="5">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="E92" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="B93" s="5">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="E93" s="5">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3547,16 +3631,16 @@
         <v>106</v>
       </c>
       <c r="B94" s="5">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="E94" s="5">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3564,16 +3648,16 @@
         <v>106</v>
       </c>
       <c r="B95" s="5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E95" s="5">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3581,33 +3665,31 @@
         <v>106</v>
       </c>
       <c r="B96" s="5">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E96" s="5">
-        <v>16</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B97" s="5">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="E97" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3615,108 +3697,30 @@
         <v>106</v>
       </c>
       <c r="B98" s="5">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E98" s="5">
-        <v>22</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>221</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B99" s="5">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="E99" s="5">
-        <v>35</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="5">
-        <v>55</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E100" s="5">
-        <v>12</v>
-      </c>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="5">
-        <v>56</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E101" s="5">
-        <v>20</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" s="5">
-        <v>57</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E102" s="5">
-        <v>8</v>
-      </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="5">
-        <v>58</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E103" s="5">
         <v>16</v>
       </c>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5">
-        <v>59</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E104" s="5">
-        <v>8</v>
-      </c>
+      <c r="G99" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
+++ b/Solución/Entregable Tesis/Planos/Control de piezas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.mena\Documents\Graduacion\Solución\Entregable Tesis\Planos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st.mena\Graduacion\Solución\Entregable Tesis\Planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="234">
   <si>
     <t>Lista de piezas</t>
   </si>
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,6 +2282,12 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2297,6 +2303,12 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2312,6 +2324,12 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
+      <c r="K15" s="4">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2327,8 +2345,14 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K16" s="4">
+        <v>4</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>110</v>
       </c>
@@ -2342,8 +2366,14 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>110</v>
       </c>
@@ -2357,8 +2387,14 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K18" s="4">
+        <v>6</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2366,8 +2402,14 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K19" s="4">
+        <v>7</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2377,8 +2419,14 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K20" s="4">
+        <v>8</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2386,8 +2434,14 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K21" s="4">
+        <v>9</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>110</v>
       </c>
@@ -2409,10 +2463,16 @@
       <c r="G22" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K22" s="4">
+        <v>10</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B23" s="5">
         <v>2</v>
@@ -2432,8 +2492,14 @@
       <c r="G23" s="7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K23" s="4">
+        <v>11</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
@@ -2455,8 +2521,14 @@
       <c r="G24" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K24" s="4">
+        <v>12</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>110</v>
       </c>
@@ -2476,8 +2548,14 @@
         <v>137</v>
       </c>
       <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K25" s="4">
+        <v>13</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>110</v>
       </c>
@@ -2497,8 +2575,14 @@
         <v>139</v>
       </c>
       <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K26" s="4">
+        <v>14</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>106</v>
       </c>
@@ -2518,8 +2602,14 @@
         <v>133</v>
       </c>
       <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="4">
+        <v>15</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>110</v>
       </c>
@@ -2541,8 +2631,14 @@
       <c r="G28" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K28" s="4">
+        <v>16</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>110</v>
       </c>
@@ -2565,7 +2661,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>110</v>
       </c>
@@ -2586,7 +2682,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>110</v>
       </c>
@@ -2609,7 +2705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>110</v>
       </c>
